--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.15/avg_0.003_scores.xlsx
@@ -115,10 +115,10 @@
     <t>better</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1281,25 +1281,25 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.7665198237885462</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L23">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="M23">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1307,25 +1307,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.7575757575757576</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L24">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="M24">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="N24">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1489,25 +1489,25 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.6481481481481481</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L31">
         <v>210</v>
       </c>
       <c r="M31">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="N31">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="10:17">
